--- a/biology/Botanique/Magnistipula_conrauana/Magnistipula_conrauana.xlsx
+++ b/biology/Botanique/Magnistipula_conrauana/Magnistipula_conrauana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magnistipula conrauana Engl. est une espèce de plantes à fleurs dicotylédones de la famille des Chrysobalanaceae du genre Magnistipula[3],[4], endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magnistipula conrauana Engl. est une espèce de plantes à fleurs dicotylédones de la famille des Chrysobalanaceae du genre Magnistipula endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique conrauana rend hommage à Gustav Conrau, collecteur de plantes au Cameroun à la fin du XIXe siècle[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique conrauana rend hommage à Gustav Conrau, collecteur de plantes au Cameroun à la fin du XIXe siècle.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre de 12 m de haut, ou arbuste de 5 m environ, il a des branches glabres et des stipules asymétriques d'environ 3-4 cm de long[6]. 
-C'est une plante endémique au Cameroun, qu'on retrouve sur le monts Bamboutos-Lebialem, Mwanenguba et mont Koupé-Bakossi[7]. 
-Son habitat naturel se trouve dans les forêts pluvieuses de montagne et à la limite entre les prairies et les forêts, entre 1 000 et 1 800 m d'altitude[6],[7]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre de 12 m de haut, ou arbuste de 5 m environ, il a des branches glabres et des stipules asymétriques d'environ 3-4 cm de long. 
+C'est une plante endémique au Cameroun, qu'on retrouve sur le monts Bamboutos-Lebialem, Mwanenguba et mont Koupé-Bakossi. 
+Son habitat naturel se trouve dans les forêts pluvieuses de montagne et à la limite entre les prairies et les forêts, entre 1 000 et 1 800 m d'altitude,. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante utilisée en agri-horticulture comme haies et marqueur[8]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante utilisée en agri-horticulture comme haies et marqueur. 
 </t>
         </is>
       </c>
